--- a/data/pca/factorExposure/factorExposure_2018-10-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.05481739661134826</v>
+        <v>-0.04192875571040453</v>
       </c>
       <c r="C2">
-        <v>0.06261116956650499</v>
+        <v>0.00109242839147892</v>
       </c>
       <c r="D2">
-        <v>0.04698106992625867</v>
+        <v>0.01607000714313864</v>
       </c>
       <c r="E2">
-        <v>-0.06021408154701114</v>
+        <v>-0.01543950831628382</v>
       </c>
       <c r="F2">
-        <v>-0.1494138412706388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.04040540955679816</v>
+      </c>
+      <c r="G2">
+        <v>-0.09669935250313734</v>
+      </c>
+      <c r="H2">
+        <v>-0.007118650166481163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1590181628446546</v>
+        <v>-0.09652818960601305</v>
       </c>
       <c r="C3">
-        <v>0.01844239600547318</v>
+        <v>-0.0409453221556745</v>
       </c>
       <c r="D3">
-        <v>0.06365123163577564</v>
+        <v>0.04396034740208263</v>
       </c>
       <c r="E3">
-        <v>-0.1021795616081287</v>
+        <v>-0.01226577840103998</v>
       </c>
       <c r="F3">
-        <v>-0.3842436887153204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.01087458364438568</v>
+      </c>
+      <c r="G3">
+        <v>-0.3068476180602512</v>
+      </c>
+      <c r="H3">
+        <v>-0.02222247820763176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0602999628852459</v>
+        <v>-0.05119878830802344</v>
       </c>
       <c r="C4">
-        <v>0.0366680102409075</v>
+        <v>-0.008293277119724923</v>
       </c>
       <c r="D4">
-        <v>0.02024858089296622</v>
+        <v>0.03531401323025326</v>
       </c>
       <c r="E4">
-        <v>-0.08274920397441993</v>
+        <v>0.01797237691278982</v>
       </c>
       <c r="F4">
-        <v>-0.05811366454465076</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06550763313479882</v>
+      </c>
+      <c r="G4">
+        <v>-0.04467083919568329</v>
+      </c>
+      <c r="H4">
+        <v>-0.02677582230783973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.00924089946776299</v>
+        <v>-0.03144620611421272</v>
       </c>
       <c r="C6">
-        <v>0.001967000581985174</v>
+        <v>-0.004169995968172367</v>
       </c>
       <c r="D6">
-        <v>0.007133507708340682</v>
+        <v>0.02928258153137737</v>
       </c>
       <c r="E6">
-        <v>0.001851394877086973</v>
+        <v>0.004565708017656011</v>
       </c>
       <c r="F6">
-        <v>-0.006795817012887062</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03246910555112364</v>
+      </c>
+      <c r="G6">
+        <v>-0.002923737307705948</v>
+      </c>
+      <c r="H6">
+        <v>-0.05252719053054362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03177218868784843</v>
+        <v>-0.02495090020375424</v>
       </c>
       <c r="C7">
-        <v>0.02021193640032852</v>
+        <v>-0.00440281241748513</v>
       </c>
       <c r="D7">
-        <v>0.03488281203008159</v>
+        <v>0.01844846345548929</v>
       </c>
       <c r="E7">
-        <v>-0.03849425220391402</v>
+        <v>0.03542429222089571</v>
       </c>
       <c r="F7">
-        <v>-0.06195193880690589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02818734854144747</v>
+      </c>
+      <c r="G7">
+        <v>-0.03642557870958563</v>
+      </c>
+      <c r="H7">
+        <v>-0.01806601748990257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01593512357882934</v>
+        <v>-0.005544436602463951</v>
       </c>
       <c r="C8">
-        <v>0.01097438677238318</v>
+        <v>-0.003620783714235207</v>
       </c>
       <c r="D8">
-        <v>0.01176410527329982</v>
+        <v>0.02233827260324131</v>
       </c>
       <c r="E8">
-        <v>-0.07737473035418216</v>
+        <v>0.01177339020719233</v>
       </c>
       <c r="F8">
-        <v>-0.09224840742602734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.03115314890902427</v>
+      </c>
+      <c r="G8">
+        <v>-0.0566234810187535</v>
+      </c>
+      <c r="H8">
+        <v>-0.001702479755827204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04883712490167074</v>
+        <v>-0.04085709272994252</v>
       </c>
       <c r="C9">
-        <v>0.03195140044426568</v>
+        <v>-0.0101858229760225</v>
       </c>
       <c r="D9">
-        <v>0.003361425057200973</v>
+        <v>0.03040770080706184</v>
       </c>
       <c r="E9">
-        <v>-0.08724228613647636</v>
+        <v>0.01782021437113798</v>
       </c>
       <c r="F9">
-        <v>-0.06177811711099403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04571463099366913</v>
+      </c>
+      <c r="G9">
+        <v>-0.06342376257567038</v>
+      </c>
+      <c r="H9">
+        <v>-0.02876666359533229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04200763475566864</v>
+        <v>-0.06581844031073744</v>
       </c>
       <c r="C10">
-        <v>0.05036788916597214</v>
+        <v>-0.03353548682396974</v>
       </c>
       <c r="D10">
-        <v>-0.05451802260673486</v>
+        <v>-0.1565607705949332</v>
       </c>
       <c r="E10">
-        <v>0.1446739102040778</v>
+        <v>-0.01792684142678335</v>
       </c>
       <c r="F10">
-        <v>-0.07937413125499038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.08224592733302398</v>
+      </c>
+      <c r="G10">
+        <v>-0.04749546666592242</v>
+      </c>
+      <c r="H10">
+        <v>-0.007899910451501103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03570389231244744</v>
+        <v>-0.02477558762110285</v>
       </c>
       <c r="C11">
-        <v>0.01199439891301933</v>
+        <v>-0.01582874316506781</v>
       </c>
       <c r="D11">
-        <v>0.02240762572074128</v>
+        <v>0.03362272636731705</v>
       </c>
       <c r="E11">
-        <v>-0.03717604973398885</v>
+        <v>-0.004109177555163241</v>
       </c>
       <c r="F11">
-        <v>-0.03012980648922566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02721099019078229</v>
+      </c>
+      <c r="G11">
+        <v>-0.03316257760059296</v>
+      </c>
+      <c r="H11">
+        <v>-0.02631176933971179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04316195635851207</v>
+        <v>-0.03343888636556192</v>
       </c>
       <c r="C12">
-        <v>0.01214975128721061</v>
+        <v>-0.01555686859697357</v>
       </c>
       <c r="D12">
-        <v>0.01225245374723979</v>
+        <v>0.03282653115255319</v>
       </c>
       <c r="E12">
-        <v>-0.04823369300972253</v>
+        <v>0.006250868108495951</v>
       </c>
       <c r="F12">
-        <v>-0.01683679407810581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02847113365893001</v>
+      </c>
+      <c r="G12">
+        <v>-0.006374597631345438</v>
+      </c>
+      <c r="H12">
+        <v>-0.01339577216274204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.03198322084924372</v>
+        <v>-0.03242660082094113</v>
       </c>
       <c r="C13">
-        <v>0.02277581501382445</v>
+        <v>0.004822002475211919</v>
       </c>
       <c r="D13">
-        <v>0.04039229105448083</v>
+        <v>0.008482203261718403</v>
       </c>
       <c r="E13">
-        <v>-0.02742779364464985</v>
+        <v>-0.01632491664943611</v>
       </c>
       <c r="F13">
-        <v>-0.0941518053771411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02513006790738474</v>
+      </c>
+      <c r="G13">
+        <v>-0.06957005513585782</v>
+      </c>
+      <c r="H13">
+        <v>-0.02051293416210544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01608414208231323</v>
+        <v>-0.01835016654721414</v>
       </c>
       <c r="C14">
-        <v>0.02421583568520517</v>
+        <v>-0.005418828144177222</v>
       </c>
       <c r="D14">
-        <v>0.01356670532054662</v>
+        <v>0.00240013133845598</v>
       </c>
       <c r="E14">
-        <v>-0.04430319459708056</v>
+        <v>0.007266506109938096</v>
       </c>
       <c r="F14">
-        <v>-0.05701087128270744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03120880244159902</v>
+      </c>
+      <c r="G14">
+        <v>-0.04195823138917865</v>
+      </c>
+      <c r="H14">
+        <v>0.02614008592758599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02833749046423302</v>
+        <v>-0.02467130315496326</v>
       </c>
       <c r="C16">
-        <v>0.01251495931255805</v>
+        <v>-0.01553276901790496</v>
       </c>
       <c r="D16">
-        <v>0.01856795804985292</v>
+        <v>0.03110338034765973</v>
       </c>
       <c r="E16">
-        <v>-0.03473665938592915</v>
+        <v>0.0005615606529207789</v>
       </c>
       <c r="F16">
-        <v>-0.031732125782137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02695456157154364</v>
+      </c>
+      <c r="G16">
+        <v>-0.02406628717228743</v>
+      </c>
+      <c r="H16">
+        <v>-0.0205937532660743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04222767343508066</v>
+        <v>-0.03444547249480096</v>
       </c>
       <c r="C19">
-        <v>0.01418438584611677</v>
+        <v>-0.008499649005991414</v>
       </c>
       <c r="D19">
-        <v>0.03143531562416724</v>
+        <v>0.0178766123885881</v>
       </c>
       <c r="E19">
-        <v>-0.04376534764424307</v>
+        <v>-0.003721421984823184</v>
       </c>
       <c r="F19">
-        <v>-0.09637745716869268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.03887015733724983</v>
+      </c>
+      <c r="G19">
+        <v>-0.07118529964021081</v>
+      </c>
+      <c r="H19">
+        <v>-0.03211463416023319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003747308788156189</v>
+        <v>-0.01113662040684948</v>
       </c>
       <c r="C20">
-        <v>0.01805128603720622</v>
+        <v>0.004110366418475207</v>
       </c>
       <c r="D20">
-        <v>0.01979287467743044</v>
+        <v>0.01247260029491215</v>
       </c>
       <c r="E20">
-        <v>-0.0548487239200381</v>
+        <v>0.002426303512575706</v>
       </c>
       <c r="F20">
-        <v>-0.06585076208346478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02245825004234642</v>
+      </c>
+      <c r="G20">
+        <v>-0.05384359317186824</v>
+      </c>
+      <c r="H20">
+        <v>0.01516777638627988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005707584065079788</v>
+        <v>-0.0238986172657559</v>
       </c>
       <c r="C21">
-        <v>0.001546935795485674</v>
+        <v>0.000765775114734732</v>
       </c>
       <c r="D21">
-        <v>0.01958588817447854</v>
+        <v>0.001784891205607577</v>
       </c>
       <c r="E21">
-        <v>-0.03653626186888664</v>
+        <v>0.01057536048745899</v>
       </c>
       <c r="F21">
-        <v>-0.0863688765536688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01113320305342022</v>
+      </c>
+      <c r="G21">
+        <v>-0.06002180196061584</v>
+      </c>
+      <c r="H21">
+        <v>-0.01043294141096379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03166086939429201</v>
+        <v>-0.02543740870439106</v>
       </c>
       <c r="C24">
-        <v>0.01043586738788563</v>
+        <v>-0.01091195706982826</v>
       </c>
       <c r="D24">
-        <v>0.01626738322782898</v>
+        <v>0.03149110383500047</v>
       </c>
       <c r="E24">
-        <v>-0.03472307850238882</v>
+        <v>0.0007172754012363461</v>
       </c>
       <c r="F24">
-        <v>-0.03666002532006218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02373022372373134</v>
+      </c>
+      <c r="G24">
+        <v>-0.02747412843053621</v>
+      </c>
+      <c r="H24">
+        <v>-0.02646035416719112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03329215487383052</v>
+        <v>-0.03508305620404469</v>
       </c>
       <c r="C25">
-        <v>0.01148981438918251</v>
+        <v>-0.0108600090591938</v>
       </c>
       <c r="D25">
-        <v>0.01319505454505281</v>
+        <v>0.02426624668320597</v>
       </c>
       <c r="E25">
-        <v>-0.03729552699887689</v>
+        <v>0.00133843108569013</v>
       </c>
       <c r="F25">
-        <v>-0.03759310825875441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02859761203500944</v>
+      </c>
+      <c r="G25">
+        <v>-0.03311638879506207</v>
+      </c>
+      <c r="H25">
+        <v>-0.02991519750802981</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02042114569568443</v>
+        <v>-0.02189947429166944</v>
       </c>
       <c r="C26">
-        <v>0.0005042218699217739</v>
+        <v>0.01364460210753881</v>
       </c>
       <c r="D26">
-        <v>0.04290971589283275</v>
+        <v>0.01166952117167862</v>
       </c>
       <c r="E26">
-        <v>-0.04083724244240492</v>
+        <v>-0.005913336865059523</v>
       </c>
       <c r="F26">
-        <v>-0.05616034570694208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008790698310296793</v>
+      </c>
+      <c r="G26">
+        <v>-0.04093919887699507</v>
+      </c>
+      <c r="H26">
+        <v>0.003470243566557703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.08007697472894594</v>
+        <v>-0.03580882529369254</v>
       </c>
       <c r="C27">
-        <v>0.05671700340293778</v>
+        <v>-0.02286042579450252</v>
       </c>
       <c r="D27">
-        <v>0.006515556499405543</v>
+        <v>0.005973308626644002</v>
       </c>
       <c r="E27">
-        <v>-0.05829091850217154</v>
+        <v>0.003302298682051462</v>
       </c>
       <c r="F27">
-        <v>-0.05879030820331583</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.03261953248551547</v>
+      </c>
+      <c r="G27">
+        <v>-0.03084650088861193</v>
+      </c>
+      <c r="H27">
+        <v>0.003710611095133047</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05879894451531831</v>
+        <v>-0.1023185649554072</v>
       </c>
       <c r="C28">
-        <v>0.06250306755655431</v>
+        <v>-0.03742160712234749</v>
       </c>
       <c r="D28">
-        <v>-0.09304199658513151</v>
+        <v>-0.2309594427326304</v>
       </c>
       <c r="E28">
-        <v>0.2131217203607856</v>
+        <v>-0.01923076179620017</v>
       </c>
       <c r="F28">
-        <v>-0.08695803399127888</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1185059190894395</v>
+      </c>
+      <c r="G28">
+        <v>-0.03095042072422266</v>
+      </c>
+      <c r="H28">
+        <v>0.008009681361035094</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02313203592995904</v>
+        <v>-0.02231164391103612</v>
       </c>
       <c r="C29">
-        <v>0.02331220371651618</v>
+        <v>-0.007722735179989861</v>
       </c>
       <c r="D29">
-        <v>0.01116767881823608</v>
+        <v>0.004897795076615215</v>
       </c>
       <c r="E29">
-        <v>-0.05718943096140807</v>
+        <v>0.007937488655084956</v>
       </c>
       <c r="F29">
-        <v>-0.04615644233241909</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03176640959894612</v>
+      </c>
+      <c r="G29">
+        <v>-0.03500586786416168</v>
+      </c>
+      <c r="H29">
+        <v>0.02219394838797938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09014902164926557</v>
+        <v>-0.06625576495282469</v>
       </c>
       <c r="C30">
-        <v>0.05687472121828198</v>
+        <v>-0.01557475114108903</v>
       </c>
       <c r="D30">
-        <v>0.05117086946725558</v>
+        <v>0.05042652587600929</v>
       </c>
       <c r="E30">
-        <v>-0.07658066612670927</v>
+        <v>-0.03968936904482922</v>
       </c>
       <c r="F30">
-        <v>-0.07024470111343836</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.07545908938870953</v>
+      </c>
+      <c r="G30">
+        <v>-0.07157917859621793</v>
+      </c>
+      <c r="H30">
+        <v>-0.04155093068518817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05654497905037997</v>
+        <v>-0.05193800259787625</v>
       </c>
       <c r="C31">
-        <v>0.01969400117885941</v>
+        <v>-0.02622528493973614</v>
       </c>
       <c r="D31">
-        <v>0.04928132327196068</v>
+        <v>0.01575307222053997</v>
       </c>
       <c r="E31">
-        <v>-0.02332090844400763</v>
+        <v>-0.01045415837898034</v>
       </c>
       <c r="F31">
-        <v>-0.02648977947585615</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02247085378865893</v>
+      </c>
+      <c r="G31">
+        <v>-0.01613194329439593</v>
+      </c>
+      <c r="H31">
+        <v>0.02090269598402777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02461618789693217</v>
+        <v>-0.009831900797165437</v>
       </c>
       <c r="C32">
-        <v>0.02458366521557918</v>
+        <v>-0.01810634151644101</v>
       </c>
       <c r="D32">
-        <v>0.01725813088581262</v>
+        <v>0.008411695048809084</v>
       </c>
       <c r="E32">
-        <v>-0.09056886657234481</v>
+        <v>0.01792342326788358</v>
       </c>
       <c r="F32">
-        <v>-0.07187845352060018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05284351560130558</v>
+      </c>
+      <c r="G32">
+        <v>-0.04982490914797827</v>
+      </c>
+      <c r="H32">
+        <v>-0.03360164243325824</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05353558989282987</v>
+        <v>-0.04146977085148647</v>
       </c>
       <c r="C33">
-        <v>0.007459380922256329</v>
+        <v>-0.0109229392577294</v>
       </c>
       <c r="D33">
-        <v>0.05540674514582452</v>
+        <v>0.03291621738515275</v>
       </c>
       <c r="E33">
-        <v>-0.06121888133163582</v>
+        <v>-0.02310615058329577</v>
       </c>
       <c r="F33">
-        <v>-0.08293196852245732</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02027760969166681</v>
+      </c>
+      <c r="G33">
+        <v>-0.06162583170273148</v>
+      </c>
+      <c r="H33">
+        <v>-0.01489492712844121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03342765630115006</v>
+        <v>-0.02655484363926924</v>
       </c>
       <c r="C34">
-        <v>0.01846788595211361</v>
+        <v>-0.0246227455991939</v>
       </c>
       <c r="D34">
-        <v>0.01866881452697612</v>
+        <v>0.02801310960835572</v>
       </c>
       <c r="E34">
-        <v>-0.04140297085971757</v>
+        <v>0.005285094012331227</v>
       </c>
       <c r="F34">
-        <v>-0.03794014626409607</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03024162961011762</v>
+      </c>
+      <c r="G34">
+        <v>-0.02728665497602977</v>
+      </c>
+      <c r="H34">
+        <v>-0.02547499488784133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01230394264943297</v>
+        <v>-0.0181690590303774</v>
       </c>
       <c r="C36">
-        <v>0.009677818528644449</v>
+        <v>0.001283937406780491</v>
       </c>
       <c r="D36">
-        <v>0.004224932672096125</v>
+        <v>-0.001422545625331931</v>
       </c>
       <c r="E36">
-        <v>-0.02786262608542876</v>
+        <v>0.003435695165685579</v>
       </c>
       <c r="F36">
-        <v>-0.02727943338037775</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.008169844430298024</v>
+      </c>
+      <c r="G36">
+        <v>-0.02293898251794639</v>
+      </c>
+      <c r="H36">
+        <v>0.007134566519547319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.007049541873933964</v>
+        <v>-0.01417625892515602</v>
       </c>
       <c r="C38">
-        <v>0.003744777275319575</v>
+        <v>-0.01861261391135893</v>
       </c>
       <c r="D38">
-        <v>-0.01272537677454517</v>
+        <v>-0.000382302537897974</v>
       </c>
       <c r="E38">
-        <v>-0.004707166775049589</v>
+        <v>0.006550653293838735</v>
       </c>
       <c r="F38">
-        <v>-0.0204159528454598</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01398906288143678</v>
+      </c>
+      <c r="G38">
+        <v>-0.03187976984630125</v>
+      </c>
+      <c r="H38">
+        <v>-0.01988289567301188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04087433047196566</v>
+        <v>-0.03027284368672048</v>
       </c>
       <c r="C39">
-        <v>0.02535521585410288</v>
+        <v>-0.01237783764039324</v>
       </c>
       <c r="D39">
-        <v>0.03540855812956546</v>
+        <v>0.06369239556302865</v>
       </c>
       <c r="E39">
-        <v>-0.03920255595544384</v>
+        <v>-0.003069748643916536</v>
       </c>
       <c r="F39">
-        <v>-0.03406651447345987</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05074051788233007</v>
+      </c>
+      <c r="G39">
+        <v>-0.04472418981530574</v>
+      </c>
+      <c r="H39">
+        <v>-0.04724717531309068</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03894493275636505</v>
+        <v>-0.03448436764796455</v>
       </c>
       <c r="C40">
-        <v>0.04369777917176335</v>
+        <v>-0.01088885050532397</v>
       </c>
       <c r="D40">
-        <v>0.06244452170983299</v>
+        <v>0.02617928853508829</v>
       </c>
       <c r="E40">
-        <v>-0.04780860387175551</v>
+        <v>-0.02053935286317347</v>
       </c>
       <c r="F40">
-        <v>-0.08484610353993242</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.04526211432028111</v>
+      </c>
+      <c r="G40">
+        <v>-0.04811095100165421</v>
+      </c>
+      <c r="H40">
+        <v>-0.04495756634217361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0005278930907088868</v>
+        <v>-0.007743745946809238</v>
       </c>
       <c r="C41">
-        <v>-0.003907844270813909</v>
+        <v>-0.000111899654652105</v>
       </c>
       <c r="D41">
-        <v>0.01345128622804418</v>
+        <v>-0.004768311589219318</v>
       </c>
       <c r="E41">
-        <v>-0.02545319152161853</v>
+        <v>-0.001207889671913176</v>
       </c>
       <c r="F41">
-        <v>-0.02282046474896015</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0002574445294425111</v>
+      </c>
+      <c r="G41">
+        <v>-0.01248861964145455</v>
+      </c>
+      <c r="H41">
+        <v>0.02020911278336579</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3764115698042535</v>
+        <v>-0.2470820125641975</v>
       </c>
       <c r="C42">
-        <v>-0.8811479196361466</v>
+        <v>0.0485975723967996</v>
       </c>
       <c r="D42">
-        <v>0.1508071482424614</v>
+        <v>0.5499243873424429</v>
       </c>
       <c r="E42">
-        <v>0.161198399856974</v>
+        <v>-0.1090480383561889</v>
       </c>
       <c r="F42">
-        <v>0.01820159359916046</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7713792719095656</v>
+      </c>
+      <c r="G42">
+        <v>0.08296508443744703</v>
+      </c>
+      <c r="H42">
+        <v>-0.0265643091098158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.006818359271142744</v>
+        <v>-0.005924961699457981</v>
       </c>
       <c r="C43">
-        <v>0.0006478708068911322</v>
+        <v>0.001967193533507668</v>
       </c>
       <c r="D43">
-        <v>0.02074552137405528</v>
+        <v>-0.005673116955517937</v>
       </c>
       <c r="E43">
-        <v>-0.02972662367118659</v>
+        <v>-0.004977882972275006</v>
       </c>
       <c r="F43">
-        <v>-0.03467157304360741</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.002090755530022917</v>
+      </c>
+      <c r="G43">
+        <v>-0.01996560326845956</v>
+      </c>
+      <c r="H43">
+        <v>0.01895923293979043</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02479745579621195</v>
+        <v>-0.01490974143932202</v>
       </c>
       <c r="C44">
-        <v>0.008417337782043189</v>
+        <v>-0.003586909962282379</v>
       </c>
       <c r="D44">
-        <v>0.03709838032636258</v>
+        <v>0.02677826883734168</v>
       </c>
       <c r="E44">
-        <v>-0.06180302357581454</v>
+        <v>0.001729506102941498</v>
       </c>
       <c r="F44">
-        <v>-0.1863834075673606</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.009976206578438843</v>
+      </c>
+      <c r="G44">
+        <v>-0.09512309665112771</v>
+      </c>
+      <c r="H44">
+        <v>-0.01277365922670577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01930727104091824</v>
+        <v>-0.02264162604406143</v>
       </c>
       <c r="C46">
-        <v>0.02066469198109737</v>
+        <v>-0.003793747895011689</v>
       </c>
       <c r="D46">
-        <v>0.02968131583794696</v>
+        <v>0.01037114852370579</v>
       </c>
       <c r="E46">
-        <v>-0.05334187859567099</v>
+        <v>-0.004805040587740053</v>
       </c>
       <c r="F46">
-        <v>-0.04052850795094189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03637470053261461</v>
+      </c>
+      <c r="G46">
+        <v>-0.04702884231450844</v>
+      </c>
+      <c r="H46">
+        <v>0.02051184765587914</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09658851440681161</v>
+        <v>-0.07361990224567773</v>
       </c>
       <c r="C47">
-        <v>0.03769254228238</v>
+        <v>-0.04809448069099348</v>
       </c>
       <c r="D47">
-        <v>0.03172733604654566</v>
+        <v>0.0195934268629938</v>
       </c>
       <c r="E47">
-        <v>-0.04239187398440813</v>
+        <v>-0.007419877763085436</v>
       </c>
       <c r="F47">
-        <v>0.002376412853851178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.03436239752266184</v>
+      </c>
+      <c r="G47">
+        <v>0.01337489679224186</v>
+      </c>
+      <c r="H47">
+        <v>0.03501796237232011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01382109176282445</v>
+        <v>-0.01783528727591257</v>
       </c>
       <c r="C48">
-        <v>0.008971992375989404</v>
+        <v>-0.009569162101322524</v>
       </c>
       <c r="D48">
-        <v>0.01873763393169102</v>
+        <v>0.006790957021797618</v>
       </c>
       <c r="E48">
-        <v>-0.04205624969666761</v>
+        <v>-0.0008340307402849273</v>
       </c>
       <c r="F48">
-        <v>-0.04803507542287838</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01461639805710091</v>
+      </c>
+      <c r="G48">
+        <v>-0.03029751100378622</v>
+      </c>
+      <c r="H48">
+        <v>0.0003753149830336999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09000846588048936</v>
+        <v>-0.06855139377229226</v>
       </c>
       <c r="C50">
-        <v>0.0219063421432378</v>
+        <v>-0.04178396585472233</v>
       </c>
       <c r="D50">
-        <v>0.04474072119361527</v>
+        <v>0.0349540620295563</v>
       </c>
       <c r="E50">
-        <v>-0.04579920686254426</v>
+        <v>0.00639657856667157</v>
       </c>
       <c r="F50">
-        <v>-0.01153680567771465</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.03126178970642947</v>
+      </c>
+      <c r="G50">
+        <v>-0.01627147030158197</v>
+      </c>
+      <c r="H50">
+        <v>0.03190463175369964</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.04790135423069904</v>
+        <v>-0.02867881318169253</v>
       </c>
       <c r="C51">
-        <v>0.001566652366235672</v>
+        <v>-0.007053800779500462</v>
       </c>
       <c r="D51">
-        <v>0.04865272532232342</v>
+        <v>-0.0008200666451568401</v>
       </c>
       <c r="E51">
-        <v>-0.01126245682177014</v>
+        <v>-0.01425908453599888</v>
       </c>
       <c r="F51">
-        <v>-0.1619599251749393</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01263727654540709</v>
+      </c>
+      <c r="G51">
+        <v>-0.093389451098466</v>
+      </c>
+      <c r="H51">
+        <v>-0.02287330875472325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1116361416307437</v>
+        <v>-0.09650942944682184</v>
       </c>
       <c r="C53">
-        <v>0.04269392570829163</v>
+        <v>-0.06180806865109765</v>
       </c>
       <c r="D53">
-        <v>0.05503735984544895</v>
+        <v>0.04562848741264581</v>
       </c>
       <c r="E53">
-        <v>-0.05503849045960024</v>
+        <v>-0.006117467157011703</v>
       </c>
       <c r="F53">
-        <v>0.06657074896460319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05970437263653966</v>
+      </c>
+      <c r="G53">
+        <v>0.06009227374417417</v>
+      </c>
+      <c r="H53">
+        <v>0.03560630940502241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02549155981507285</v>
+        <v>-0.02328174314459186</v>
       </c>
       <c r="C54">
-        <v>0.04020011524137251</v>
+        <v>-0.01893578643102463</v>
       </c>
       <c r="D54">
-        <v>0.01113626159114001</v>
+        <v>-0.02158788555369831</v>
       </c>
       <c r="E54">
-        <v>-0.03453151661702419</v>
+        <v>0.002308819566703179</v>
       </c>
       <c r="F54">
-        <v>-0.0685528888900603</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01911116588269263</v>
+      </c>
+      <c r="G54">
+        <v>-0.04724756346768796</v>
+      </c>
+      <c r="H54">
+        <v>0.03286809110852788</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1060117719590991</v>
+        <v>-0.08326010923475148</v>
       </c>
       <c r="C55">
-        <v>0.02933743464804692</v>
+        <v>-0.05390459408263966</v>
       </c>
       <c r="D55">
-        <v>0.004408956409677073</v>
+        <v>0.04236884304076329</v>
       </c>
       <c r="E55">
-        <v>-0.05211540684784393</v>
+        <v>0.0064722202476744</v>
       </c>
       <c r="F55">
-        <v>0.0592546674874065</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04669111041641939</v>
+      </c>
+      <c r="G55">
+        <v>0.04070969698811008</v>
+      </c>
+      <c r="H55">
+        <v>0.05303515294112478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1470718049680478</v>
+        <v>-0.1247415934003361</v>
       </c>
       <c r="C56">
-        <v>0.0734721196382318</v>
+        <v>-0.08724074203505267</v>
       </c>
       <c r="D56">
-        <v>0.02966721062839944</v>
+        <v>0.05483649562509578</v>
       </c>
       <c r="E56">
-        <v>-0.06275851656166903</v>
+        <v>-0.0007108760430451414</v>
       </c>
       <c r="F56">
-        <v>0.1607029422288007</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.08433613801496104</v>
+      </c>
+      <c r="G56">
+        <v>0.1041339870620982</v>
+      </c>
+      <c r="H56">
+        <v>0.02917590241470868</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04914731435828081</v>
+        <v>-0.04565660487333247</v>
       </c>
       <c r="C57">
-        <v>0.02166493271151802</v>
+        <v>-0.001311119282442358</v>
       </c>
       <c r="D57">
-        <v>0.04094333971447837</v>
+        <v>0.02634347918570866</v>
       </c>
       <c r="E57">
-        <v>-0.03027633936638461</v>
+        <v>-0.01382488096076941</v>
       </c>
       <c r="F57">
-        <v>-0.07898471959167003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03113170978543158</v>
+      </c>
+      <c r="G57">
+        <v>-0.06973698494467095</v>
+      </c>
+      <c r="H57">
+        <v>-0.01279350147133636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2213432617590102</v>
+        <v>-0.1596750523851851</v>
       </c>
       <c r="C58">
-        <v>0.06701028624276772</v>
+        <v>-0.08245351776414052</v>
       </c>
       <c r="D58">
-        <v>0.1252739803498064</v>
+        <v>0.1085823805398505</v>
       </c>
       <c r="E58">
-        <v>-0.1215444893854295</v>
+        <v>-0.1275947799651053</v>
       </c>
       <c r="F58">
-        <v>-0.2718097547565064</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.04214387002671599</v>
+      </c>
+      <c r="G58">
+        <v>-0.632878120526663</v>
+      </c>
+      <c r="H58">
+        <v>0.5611913237949503</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.06420683321910098</v>
+        <v>-0.1059486052073334</v>
       </c>
       <c r="C59">
-        <v>0.08641466457068275</v>
+        <v>-0.04736618151483268</v>
       </c>
       <c r="D59">
-        <v>-0.07076527356834886</v>
+        <v>-0.2201753759714274</v>
       </c>
       <c r="E59">
-        <v>0.1536777675280181</v>
+        <v>-0.03380513390630761</v>
       </c>
       <c r="F59">
-        <v>-0.05863395494365854</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.08806773222860194</v>
+      </c>
+      <c r="G59">
+        <v>-0.03233275654408859</v>
+      </c>
+      <c r="H59">
+        <v>-0.0200787718675706</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1666592089184318</v>
+        <v>-0.1657507615999392</v>
       </c>
       <c r="C60">
-        <v>0.07786507698550883</v>
+        <v>-0.07579833177772212</v>
       </c>
       <c r="D60">
-        <v>0.04375107311903855</v>
+        <v>-0.008125289766791322</v>
       </c>
       <c r="E60">
-        <v>0.04223227057303413</v>
+        <v>-0.05625471524955713</v>
       </c>
       <c r="F60">
-        <v>-0.09029840764481405</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.06308597356930619</v>
+      </c>
+      <c r="G60">
+        <v>-0.1236840562381017</v>
+      </c>
+      <c r="H60">
+        <v>-0.3504372177405758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02296005175445895</v>
+        <v>-0.02519099247433076</v>
       </c>
       <c r="C61">
-        <v>0.01355664922181767</v>
+        <v>-0.01431198882383922</v>
       </c>
       <c r="D61">
-        <v>0.01170921217762422</v>
+        <v>0.03505506084671013</v>
       </c>
       <c r="E61">
-        <v>-0.03167362960418388</v>
+        <v>0.002242010725050006</v>
       </c>
       <c r="F61">
-        <v>-0.03127334652830158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03606241631319667</v>
+      </c>
+      <c r="G61">
+        <v>-0.0291913614492659</v>
+      </c>
+      <c r="H61">
+        <v>-0.03641038144175779</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.02239322678542364</v>
+        <v>-0.01732601888797594</v>
       </c>
       <c r="C63">
-        <v>0.02107058175961287</v>
+        <v>-0.003949048273597801</v>
       </c>
       <c r="D63">
-        <v>0.02641611306821524</v>
+        <v>0.01108606204415034</v>
       </c>
       <c r="E63">
-        <v>-0.04872626576681929</v>
+        <v>0.0004731427270139831</v>
       </c>
       <c r="F63">
-        <v>-0.02108211885915251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02770325302327672</v>
+      </c>
+      <c r="G63">
+        <v>-0.02232876444254426</v>
+      </c>
+      <c r="H63">
+        <v>0.01391248666649752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0526185181045037</v>
+        <v>-0.04797176900556568</v>
       </c>
       <c r="C64">
-        <v>0.01707928165886157</v>
+        <v>-0.02445625776797241</v>
       </c>
       <c r="D64">
-        <v>0.01548093056173127</v>
+        <v>0.04241800447105133</v>
       </c>
       <c r="E64">
-        <v>-0.08658475366683135</v>
+        <v>0.008961168516477002</v>
       </c>
       <c r="F64">
-        <v>-0.04567923560023917</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03509877984641912</v>
+      </c>
+      <c r="G64">
+        <v>-0.02188018770164613</v>
+      </c>
+      <c r="H64">
+        <v>-0.02767696698266516</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.008972474043896278</v>
+        <v>-0.03658534999336027</v>
       </c>
       <c r="C65">
-        <v>0.0003464684414554627</v>
+        <v>-0.00484614408764989</v>
       </c>
       <c r="D65">
-        <v>0.005719103166443576</v>
+        <v>0.03254443354906591</v>
       </c>
       <c r="E65">
-        <v>0.004670871530075793</v>
+        <v>0.004445176444814149</v>
       </c>
       <c r="F65">
-        <v>-0.003864190648033519</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03245143437707143</v>
+      </c>
+      <c r="G65">
+        <v>0.004611713696524588</v>
+      </c>
+      <c r="H65">
+        <v>-0.06128710280119661</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04595251013708284</v>
+        <v>-0.03861173203560905</v>
       </c>
       <c r="C66">
-        <v>0.0341787460627145</v>
+        <v>-0.02076691525140844</v>
       </c>
       <c r="D66">
-        <v>0.03739270337361762</v>
+        <v>0.07258772539010483</v>
       </c>
       <c r="E66">
-        <v>-0.05948349135907861</v>
+        <v>-0.01010437291194141</v>
       </c>
       <c r="F66">
-        <v>-0.03782164285525483</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07414816319637596</v>
+      </c>
+      <c r="G66">
+        <v>-0.04042334912662849</v>
+      </c>
+      <c r="H66">
+        <v>-0.06089551898285003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02737627470293334</v>
+        <v>-0.03337295297656985</v>
       </c>
       <c r="C67">
-        <v>0.01183466510285312</v>
+        <v>-0.02560222028697115</v>
       </c>
       <c r="D67">
-        <v>-0.01536421321891098</v>
+        <v>-0.009680682193625667</v>
       </c>
       <c r="E67">
-        <v>0.01502966872952303</v>
+        <v>0.001475610224126672</v>
       </c>
       <c r="F67">
-        <v>-0.02990250212733212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01430845390445214</v>
+      </c>
+      <c r="G67">
+        <v>-0.02315814917312008</v>
+      </c>
+      <c r="H67">
+        <v>-0.03498074684501973</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.067185630080138</v>
+        <v>-0.106528270276165</v>
       </c>
       <c r="C68">
-        <v>0.07120201814163496</v>
+        <v>-0.02355419471849548</v>
       </c>
       <c r="D68">
-        <v>-0.1064702211630411</v>
+        <v>-0.2172701929028471</v>
       </c>
       <c r="E68">
-        <v>0.216686549094276</v>
+        <v>-0.02833706535690284</v>
       </c>
       <c r="F68">
-        <v>-0.03485550076841762</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1137885210207507</v>
+      </c>
+      <c r="G68">
+        <v>-0.0236688381471607</v>
+      </c>
+      <c r="H68">
+        <v>0.05272123225019542</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0711931142372819</v>
+        <v>-0.05775689262768486</v>
       </c>
       <c r="C69">
-        <v>0.03819936522742603</v>
+        <v>-0.04268202199453591</v>
       </c>
       <c r="D69">
-        <v>0.0242824279497381</v>
+        <v>0.01404286891283769</v>
       </c>
       <c r="E69">
-        <v>-0.006164248853415231</v>
+        <v>-0.007638755846421979</v>
       </c>
       <c r="F69">
-        <v>-0.01094283679852611</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02991287734764424</v>
+      </c>
+      <c r="G69">
+        <v>0.002989958191991675</v>
+      </c>
+      <c r="H69">
+        <v>0.01449137149438012</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08231395135952417</v>
+        <v>-0.1038817175816413</v>
       </c>
       <c r="C71">
-        <v>0.07024913444009548</v>
+        <v>-0.03318534563719511</v>
       </c>
       <c r="D71">
-        <v>-0.08302653833090981</v>
+        <v>-0.2006633027782031</v>
       </c>
       <c r="E71">
-        <v>0.2480545274560112</v>
+        <v>-0.03238411771491962</v>
       </c>
       <c r="F71">
-        <v>-0.06508235596662698</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1204524292083761</v>
+      </c>
+      <c r="G71">
+        <v>-0.02850659472555652</v>
+      </c>
+      <c r="H71">
+        <v>0.0216147946149383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1086345888353297</v>
+        <v>-0.08887110322541127</v>
       </c>
       <c r="C72">
-        <v>0.1153970148385638</v>
+        <v>-0.06678834641261001</v>
       </c>
       <c r="D72">
-        <v>0.02273986697613652</v>
+        <v>0.04642831620983275</v>
       </c>
       <c r="E72">
-        <v>-0.0552237167502173</v>
+        <v>-0.01288982247653608</v>
       </c>
       <c r="F72">
-        <v>-0.05190502673171014</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1179277410959025</v>
+      </c>
+      <c r="G72">
+        <v>-0.07608563195904663</v>
+      </c>
+      <c r="H72">
+        <v>-0.1500510990217016</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2396233883636245</v>
+        <v>-0.2319900840849442</v>
       </c>
       <c r="C73">
-        <v>0.1062593705230795</v>
+        <v>-0.1006242162511819</v>
       </c>
       <c r="D73">
-        <v>0.02320172359204613</v>
+        <v>0.01067870863641455</v>
       </c>
       <c r="E73">
-        <v>0.1013464377251235</v>
+        <v>-0.08959730629888485</v>
       </c>
       <c r="F73">
-        <v>-0.1766714250580588</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.06770263424107026</v>
+      </c>
+      <c r="G73">
+        <v>-0.176408226047526</v>
+      </c>
+      <c r="H73">
+        <v>-0.5093863973552838</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1263810124678713</v>
+        <v>-0.1109092116825383</v>
       </c>
       <c r="C74">
-        <v>0.03985404713931464</v>
+        <v>-0.07673596973261079</v>
       </c>
       <c r="D74">
-        <v>0.0274700952324858</v>
+        <v>0.05172720319137308</v>
       </c>
       <c r="E74">
-        <v>-0.02774074276510185</v>
+        <v>-0.008066873803584711</v>
       </c>
       <c r="F74">
-        <v>0.114766688072311</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06685078987646616</v>
+      </c>
+      <c r="G74">
+        <v>0.08999276371170037</v>
+      </c>
+      <c r="H74">
+        <v>0.002222869292001272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2296877514051596</v>
+        <v>-0.2203797966268347</v>
       </c>
       <c r="C75">
-        <v>0.1109305961280771</v>
+        <v>-0.1541298042626252</v>
       </c>
       <c r="D75">
-        <v>0.06947932755116623</v>
+        <v>0.05964152455094955</v>
       </c>
       <c r="E75">
-        <v>-0.0446258934899818</v>
+        <v>-0.03363464179279196</v>
       </c>
       <c r="F75">
-        <v>0.1720695001186237</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1265860955316339</v>
+      </c>
+      <c r="G75">
+        <v>0.1626591378592974</v>
+      </c>
+      <c r="H75">
+        <v>0.09261731942113371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2639626327608716</v>
+        <v>-0.2102926622708378</v>
       </c>
       <c r="C76">
-        <v>0.1290987421467647</v>
+        <v>-0.151391138184721</v>
       </c>
       <c r="D76">
-        <v>0.007941299639535618</v>
+        <v>0.05856742318470214</v>
       </c>
       <c r="E76">
-        <v>-0.05484351551229046</v>
+        <v>0.009403440680940392</v>
       </c>
       <c r="F76">
-        <v>0.2032008460850551</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1348131437920056</v>
+      </c>
+      <c r="G76">
+        <v>0.1837086931646305</v>
+      </c>
+      <c r="H76">
+        <v>0.09804082433317876</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1413029193789652</v>
+        <v>-0.08173154647636305</v>
       </c>
       <c r="C77">
-        <v>-0.01516575160691996</v>
+        <v>-0.02971988597205144</v>
       </c>
       <c r="D77">
-        <v>0.06732810218541552</v>
+        <v>0.07345768961135801</v>
       </c>
       <c r="E77">
-        <v>-0.055219206796995</v>
+        <v>-0.01448932388410123</v>
       </c>
       <c r="F77">
-        <v>-0.2172302684661905</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.002541950390910668</v>
+      </c>
+      <c r="G77">
+        <v>-0.132566022730384</v>
+      </c>
+      <c r="H77">
+        <v>0.06943022956024486</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05724007127507415</v>
+        <v>-0.0405013242524171</v>
       </c>
       <c r="C78">
-        <v>0.0130980238586143</v>
+        <v>-0.02134459727661881</v>
       </c>
       <c r="D78">
-        <v>0.04030578825877352</v>
+        <v>0.05238897625111297</v>
       </c>
       <c r="E78">
-        <v>-0.08824012525002717</v>
+        <v>0.003324859650934012</v>
       </c>
       <c r="F78">
-        <v>-0.02862326817360134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04726952541945229</v>
+      </c>
+      <c r="G78">
+        <v>-0.04845653421175738</v>
+      </c>
+      <c r="H78">
+        <v>-0.02798262165259017</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1886840221082254</v>
+        <v>-0.1713052178209613</v>
       </c>
       <c r="C80">
-        <v>-0.1525405345654202</v>
+        <v>-0.08686644634804837</v>
       </c>
       <c r="D80">
-        <v>-0.8681620276406939</v>
+        <v>0.004277898650156299</v>
       </c>
       <c r="E80">
-        <v>-0.4012025835788261</v>
+        <v>0.9612714887048575</v>
       </c>
       <c r="F80">
-        <v>-0.05069776687265588</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.1028624546387011</v>
+      </c>
+      <c r="G80">
+        <v>-0.1045418178326025</v>
+      </c>
+      <c r="H80">
+        <v>-0.006938101683311849</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1605465505696551</v>
+        <v>-0.1496037030874725</v>
       </c>
       <c r="C81">
-        <v>0.09920281919686978</v>
+        <v>-0.1050567884438352</v>
       </c>
       <c r="D81">
-        <v>0.02886595083490532</v>
+        <v>0.03827405149325364</v>
       </c>
       <c r="E81">
-        <v>-0.04072290161942087</v>
+        <v>-0.007734412608432525</v>
       </c>
       <c r="F81">
-        <v>0.1992306646311658</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09638835074323933</v>
+      </c>
+      <c r="G81">
+        <v>0.1235965345353813</v>
+      </c>
+      <c r="H81">
+        <v>0.0824034504592497</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05826478938228894</v>
+        <v>-0.04169473156882444</v>
       </c>
       <c r="C83">
-        <v>-0.007032606955174043</v>
+        <v>-0.01810034046101567</v>
       </c>
       <c r="D83">
-        <v>0.04690428569796423</v>
+        <v>0.02679129898593927</v>
       </c>
       <c r="E83">
-        <v>-0.04035827974641596</v>
+        <v>-0.01395198412258337</v>
       </c>
       <c r="F83">
-        <v>-0.07705258472222903</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.0157501563127506</v>
+      </c>
+      <c r="G83">
+        <v>-0.05898708479932865</v>
+      </c>
+      <c r="H83">
+        <v>-0.01874461314824661</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2344572601335353</v>
+        <v>-0.210559149748453</v>
       </c>
       <c r="C85">
-        <v>0.09137361746810256</v>
+        <v>-0.1336931642920381</v>
       </c>
       <c r="D85">
-        <v>0.0352481431419874</v>
+        <v>0.07702870445884175</v>
       </c>
       <c r="E85">
-        <v>-0.03621059454869049</v>
+        <v>-0.0206993396540088</v>
       </c>
       <c r="F85">
-        <v>0.1928485062615307</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1172032995665288</v>
+      </c>
+      <c r="G85">
+        <v>0.1726732426615828</v>
+      </c>
+      <c r="H85">
+        <v>0.05862866643725199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.009002370636097394</v>
+        <v>-0.01073322134919396</v>
       </c>
       <c r="C86">
-        <v>0.0001028684289005303</v>
+        <v>-0.0001957724858849954</v>
       </c>
       <c r="D86">
-        <v>0.02652352404416103</v>
+        <v>0.02274205392952012</v>
       </c>
       <c r="E86">
-        <v>-0.08549575982409727</v>
+        <v>-0.00647875127278153</v>
       </c>
       <c r="F86">
-        <v>-0.08745892490376199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01969471115092529</v>
+      </c>
+      <c r="G86">
+        <v>-0.08673616166050251</v>
+      </c>
+      <c r="H86">
+        <v>-0.03759423946153762</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02068609495465715</v>
+        <v>-0.02666511284085185</v>
       </c>
       <c r="C87">
-        <v>0.01987418214762954</v>
+        <v>-0.008023840014583158</v>
       </c>
       <c r="D87">
-        <v>-0.004683865374475338</v>
+        <v>0.01318218921620744</v>
       </c>
       <c r="E87">
-        <v>0.003742972000050642</v>
+        <v>-0.0006515388682947356</v>
       </c>
       <c r="F87">
-        <v>-0.08056521150270904</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01405355524919614</v>
+      </c>
+      <c r="G87">
+        <v>-0.08717595368039525</v>
+      </c>
+      <c r="H87">
+        <v>-0.0246409512600284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01202397119788141</v>
+        <v>-0.03918853559973096</v>
       </c>
       <c r="C88">
-        <v>0.01975423682321643</v>
+        <v>0.00235841767942085</v>
       </c>
       <c r="D88">
-        <v>-0.01444386378502098</v>
+        <v>-0.01183835477508244</v>
       </c>
       <c r="E88">
-        <v>-0.009738814702029811</v>
+        <v>0.005352140578320927</v>
       </c>
       <c r="F88">
-        <v>-0.0375417413130054</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01536341298590089</v>
+      </c>
+      <c r="G88">
+        <v>-0.002307893825506612</v>
+      </c>
+      <c r="H88">
+        <v>-0.01608256181135278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0968451916246319</v>
+        <v>-0.1653705556733435</v>
       </c>
       <c r="C89">
-        <v>0.08965840482175061</v>
+        <v>-0.04840642442776043</v>
       </c>
       <c r="D89">
-        <v>-0.1033705930520868</v>
+        <v>-0.3420682003635944</v>
       </c>
       <c r="E89">
-        <v>0.3118756388513255</v>
+        <v>-0.06966884246641965</v>
       </c>
       <c r="F89">
-        <v>-0.1220937870407615</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1711073714454562</v>
+      </c>
+      <c r="G89">
+        <v>-0.02186596631633552</v>
+      </c>
+      <c r="H89">
+        <v>0.01691420348368776</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09156326118142885</v>
+        <v>-0.1287211724712376</v>
       </c>
       <c r="C90">
-        <v>0.08529672379285844</v>
+        <v>-0.03740429675066124</v>
       </c>
       <c r="D90">
-        <v>-0.1493230269866234</v>
+        <v>-0.2950898432520991</v>
       </c>
       <c r="E90">
-        <v>0.2694990911572911</v>
+        <v>-0.03968905417834517</v>
       </c>
       <c r="F90">
-        <v>-0.06926099638791677</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1587618708884092</v>
+      </c>
+      <c r="G90">
+        <v>0.01761865383143938</v>
+      </c>
+      <c r="H90">
+        <v>0.04183928595506053</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2940338323028759</v>
+        <v>-0.2328369006602355</v>
       </c>
       <c r="C91">
-        <v>0.09658216455373328</v>
+        <v>-0.1595171136663741</v>
       </c>
       <c r="D91">
-        <v>0.0452463122437186</v>
+        <v>0.06953165019109771</v>
       </c>
       <c r="E91">
-        <v>0.007081881036469784</v>
+        <v>-0.027232884662028</v>
       </c>
       <c r="F91">
-        <v>0.2419968943289917</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1169671473676576</v>
+      </c>
+      <c r="G91">
+        <v>0.2247068234711287</v>
+      </c>
+      <c r="H91">
+        <v>0.1178663415236092</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1341204804754447</v>
+        <v>-0.1874440486042767</v>
       </c>
       <c r="C92">
-        <v>0.0639116498480601</v>
+        <v>-0.1192061060278697</v>
       </c>
       <c r="D92">
-        <v>-0.1587882454595811</v>
+        <v>-0.2743336039145162</v>
       </c>
       <c r="E92">
-        <v>0.2864167060476068</v>
+        <v>-0.02999717024499646</v>
       </c>
       <c r="F92">
-        <v>-0.0920737138969062</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1467566431253934</v>
+      </c>
+      <c r="G92">
+        <v>0.0312534279880741</v>
+      </c>
+      <c r="H92">
+        <v>0.1058039126575071</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09500467856676495</v>
+        <v>-0.1472238973364119</v>
       </c>
       <c r="C93">
-        <v>0.0653210645489764</v>
+        <v>-0.0491197119971368</v>
       </c>
       <c r="D93">
-        <v>-0.1766843613243072</v>
+        <v>-0.3243589054099313</v>
       </c>
       <c r="E93">
-        <v>0.3787812816683607</v>
+        <v>-0.05796896905617167</v>
       </c>
       <c r="F93">
-        <v>-0.04962067114040331</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.2055307376008978</v>
+      </c>
+      <c r="G93">
+        <v>0.02095253336847099</v>
+      </c>
+      <c r="H93">
+        <v>-0.02798575542134516</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2591330164767137</v>
+        <v>-0.2499838998588983</v>
       </c>
       <c r="C94">
-        <v>0.1287838188332617</v>
+        <v>-0.1503329790483764</v>
       </c>
       <c r="D94">
-        <v>0.00939428593308151</v>
+        <v>0.04117856775931163</v>
       </c>
       <c r="E94">
-        <v>-0.02141432907914232</v>
+        <v>-0.03889416141491871</v>
       </c>
       <c r="F94">
-        <v>0.3230302415100285</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1330159520973165</v>
+      </c>
+      <c r="G94">
+        <v>0.2490028163965625</v>
+      </c>
+      <c r="H94">
+        <v>0.1347956423155632</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1125319947164399</v>
+        <v>-0.07652394715361277</v>
       </c>
       <c r="C95">
-        <v>0.01234287913996387</v>
+        <v>-0.05509327793213095</v>
       </c>
       <c r="D95">
-        <v>0.1097114624455212</v>
+        <v>0.08026246003111455</v>
       </c>
       <c r="E95">
-        <v>-0.09677491097433251</v>
+        <v>-0.07825938940758097</v>
       </c>
       <c r="F95">
-        <v>-0.06801420064532365</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03092155283427491</v>
+      </c>
+      <c r="G95">
+        <v>-0.08105165775746753</v>
+      </c>
+      <c r="H95">
+        <v>-0.02137378260004885</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1854840231776512</v>
+        <v>-0.16922306748742</v>
       </c>
       <c r="C98">
-        <v>0.05188253820583041</v>
+        <v>-0.1060517645118395</v>
       </c>
       <c r="D98">
-        <v>0.02466312820710893</v>
+        <v>0.01046929700437724</v>
       </c>
       <c r="E98">
-        <v>0.09467621080812118</v>
+        <v>-0.06269791554708588</v>
       </c>
       <c r="F98">
-        <v>-0.07718085295160822</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.0203706827383993</v>
+      </c>
+      <c r="G98">
+        <v>-0.1492291829148464</v>
+      </c>
+      <c r="H98">
+        <v>-0.373871148852725</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.008900947824761141</v>
+        <v>-0.01577421824259322</v>
       </c>
       <c r="C101">
-        <v>0.02921197803758266</v>
+        <v>-0.00443129586576246</v>
       </c>
       <c r="D101">
-        <v>0.03509527403849395</v>
+        <v>0.007695400936780522</v>
       </c>
       <c r="E101">
-        <v>-0.104413473030034</v>
+        <v>0.003166783918723217</v>
       </c>
       <c r="F101">
-        <v>-0.1506894521737225</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04022053771267777</v>
+      </c>
+      <c r="G101">
+        <v>-0.09332550008548912</v>
+      </c>
+      <c r="H101">
+        <v>0.07860382506653792</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1038895913639487</v>
+        <v>-0.1099125519933253</v>
       </c>
       <c r="C102">
-        <v>0.03153586379563579</v>
+        <v>-0.06231695244868553</v>
       </c>
       <c r="D102">
-        <v>0.02594122828028933</v>
+        <v>0.04441184723968555</v>
       </c>
       <c r="E102">
-        <v>-0.0701674489548849</v>
+        <v>-0.003884589031860221</v>
       </c>
       <c r="F102">
-        <v>0.1334863120728086</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06697609477510807</v>
+      </c>
+      <c r="G102">
+        <v>0.1027789422101662</v>
+      </c>
+      <c r="H102">
+        <v>0.0651007550792707</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02606458132947825</v>
+        <v>-0.02250324473460832</v>
       </c>
       <c r="C103">
-        <v>0.009872544083772677</v>
+        <v>-0.01382123266722739</v>
       </c>
       <c r="D103">
-        <v>0.007095460977755782</v>
+        <v>0.01055673736728101</v>
       </c>
       <c r="E103">
-        <v>-0.006357932262480852</v>
+        <v>0.006699713718306041</v>
       </c>
       <c r="F103">
-        <v>0.02735478063249781</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01599101633232721</v>
+      </c>
+      <c r="G103">
+        <v>0.01071869930717155</v>
+      </c>
+      <c r="H103">
+        <v>0.0102419746709748</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.4491362682749788</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8703306436284526</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.04142987081148262</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.01999946479688115</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1641467053569816</v>
+      </c>
+      <c r="G104">
+        <v>0.0435820576012319</v>
+      </c>
+      <c r="H104">
+        <v>0.0290566349118695</v>
       </c>
     </row>
   </sheetData>
